--- a/src/test/java/ApachePOI/resource/Mentoring.xlsx
+++ b/src/test/java/ApachePOI/resource/Mentoring.xlsx
@@ -62,29 +62,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A2:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1.0</v>
@@ -93,13 +76,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -110,13 +93,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -127,13 +110,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -144,13 +127,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -161,13 +144,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -178,13 +161,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -195,13 +178,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
@@ -212,30 +195,30 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
@@ -246,13 +229,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -263,13 +246,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -280,13 +263,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
@@ -297,13 +280,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
@@ -314,13 +297,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
@@ -331,13 +314,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="17">
@@ -348,13 +331,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
@@ -365,30 +348,30 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="20">
@@ -399,13 +382,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
@@ -416,13 +399,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="22">
@@ -433,13 +416,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="23">
@@ -450,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="24">
@@ -467,13 +450,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="25">
@@ -484,13 +467,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="26">
@@ -501,13 +484,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="27">
@@ -518,30 +501,30 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>4.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="29">
@@ -552,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="30">
@@ -569,13 +552,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="31">
@@ -586,13 +569,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="32">
@@ -603,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="33">
@@ -620,13 +603,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="34">
@@ -637,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="35">
@@ -654,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="36">
@@ -671,30 +654,30 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>5.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="38">
@@ -705,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="39">
@@ -722,13 +705,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="40">
@@ -739,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="41">
@@ -756,13 +739,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="42">
@@ -773,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="43">
@@ -790,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="44">
@@ -807,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="45">
@@ -824,30 +807,30 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>45.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>6.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="47">
@@ -858,13 +841,13 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="48">
@@ -875,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="49">
@@ -892,13 +875,13 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="50">
@@ -909,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D50" t="s">
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>30.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="51">
@@ -926,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D51" t="s">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>36.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="52">
@@ -943,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D52" t="s">
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>42.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="53">
@@ -960,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>48.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="54">
@@ -977,30 +960,30 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>54.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>7.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="56">
@@ -1011,13 +994,13 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D56" t="s">
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="57">
@@ -1028,13 +1011,13 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="58">
@@ -1045,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="59">
@@ -1062,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="60">
@@ -1079,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>42.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="61">
@@ -1096,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>49.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="62">
@@ -1113,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>56.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="63">
@@ -1130,30 +1113,30 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>63.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>8.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="65">
@@ -1164,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D65" t="s">
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="66">
@@ -1181,13 +1164,13 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="67">
@@ -1198,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="68">
@@ -1215,13 +1198,13 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>40.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="69">
@@ -1232,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D69" t="s">
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>48.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="70">
@@ -1249,13 +1232,13 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>56.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="71">
@@ -1266,13 +1249,13 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>64.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="72">
@@ -1283,30 +1266,30 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>72.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>9.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="74">
@@ -1317,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="75">
@@ -1334,13 +1317,13 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="76">
@@ -1351,13 +1334,13 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>36.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="77">
@@ -1368,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>45.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="78">
@@ -1385,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="79">
@@ -1402,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D79" t="s">
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>63.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="80">
@@ -1419,13 +1402,13 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>72.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="81">
@@ -1436,12 +1419,29 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
       </c>
       <c r="E81" t="n">
+        <v>72.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
         <v>81.0</v>
       </c>
     </row>
